--- a/Final Data/Ohio/Ohio companies_copy.xlsx
+++ b/Final Data/Ohio/Ohio companies_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosuarez/Desktop/FSDAB/Final Data/Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A057544D-E78F-B74D-9EE7-7B49A4E1DADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A057544D-E78F-B74D-9EE7-7B49A4E1DADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46AF99A8-B9C2-4FE3-96FA-1AB5301E0A7E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,16 +224,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -540,17 +539,18 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>41</v>
       </c>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>73</v>
       </c>
@@ -704,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>74</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>75</v>
       </c>
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>76</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>151</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>149</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -881,7 +881,7 @@
         <v>121546</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>152</v>
       </c>
@@ -898,7 +898,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>153</v>
       </c>
@@ -915,7 +915,7 @@
         <v>12574</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>172</v>
       </c>
@@ -931,9 +931,8 @@
       <c r="E14">
         <v>6498</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>173</v>
       </c>
@@ -949,9 +948,8 @@
       <c r="E15">
         <v>115337</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>174</v>
       </c>
@@ -968,7 +966,7 @@
         <v>25778</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -985,7 +983,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>497</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>71726</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>179</v>
       </c>
@@ -1035,9 +1033,8 @@
       <c r="E20">
         <v>55858</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>269</v>
       </c>
@@ -1053,9 +1050,8 @@
       <c r="E21">
         <v>5826</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>270</v>
       </c>
@@ -1071,9 +1067,8 @@
       <c r="E22">
         <v>5677</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>457</v>
       </c>
@@ -1089,9 +1084,8 @@
       <c r="E23">
         <v>14156</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>458</v>
       </c>
@@ -1107,9 +1101,8 @@
       <c r="E24">
         <v>15158</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>474</v>
       </c>
@@ -1125,9 +1118,8 @@
       <c r="E25">
         <v>7811</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>489</v>
       </c>
@@ -1143,7 +1135,6 @@
       <c r="E26">
         <v>6702</v>
       </c>
-      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Final Data/Ohio/Ohio companies_copy.xlsx
+++ b/Final Data/Ohio/Ohio companies_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosuarez/Desktop/FSDAB/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A057544D-E78F-B74D-9EE7-7B49A4E1DADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46AF99A8-B9C2-4FE3-96FA-1AB5301E0A7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,15 +224,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -539,18 +540,18 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -608,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41</v>
       </c>
@@ -640,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -672,7 +673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>73</v>
       </c>
@@ -704,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>74</v>
       </c>
@@ -736,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>75</v>
       </c>
@@ -768,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>76</v>
       </c>
@@ -800,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>151</v>
       </c>
@@ -832,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>149</v>
       </c>
@@ -864,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -881,7 +882,7 @@
         <v>121546</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>152</v>
       </c>
@@ -898,7 +899,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>153</v>
       </c>
@@ -915,7 +916,7 @@
         <v>12574</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>172</v>
       </c>
@@ -931,8 +932,9 @@
       <c r="E14">
         <v>6498</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>173</v>
       </c>
@@ -948,8 +950,9 @@
       <c r="E15">
         <v>115337</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>174</v>
       </c>
@@ -966,7 +969,7 @@
         <v>25778</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -983,7 +986,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>497</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>71726</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>179</v>
       </c>
@@ -1033,8 +1036,9 @@
       <c r="E20">
         <v>55858</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>269</v>
       </c>
@@ -1050,8 +1054,9 @@
       <c r="E21">
         <v>5826</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>270</v>
       </c>
@@ -1067,8 +1072,9 @@
       <c r="E22">
         <v>5677</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>457</v>
       </c>
@@ -1084,8 +1090,9 @@
       <c r="E23">
         <v>14156</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>458</v>
       </c>
@@ -1101,8 +1108,9 @@
       <c r="E24">
         <v>15158</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>474</v>
       </c>
@@ -1118,8 +1126,9 @@
       <c r="E25">
         <v>7811</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>489</v>
       </c>
@@ -1135,6 +1144,7 @@
       <c r="E26">
         <v>6702</v>
       </c>
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Final Data/Ohio/Ohio companies_copy.xlsx
+++ b/Final Data/Ohio/Ohio companies_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosuarez/Desktop/FSDAB/Final Data/Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4872693-649F-4C03-A205-C42A5AB98709}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23325" yWindow="3060" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,16 +224,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -540,18 +539,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41</v>
       </c>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -673,7 +673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>73</v>
       </c>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>74</v>
       </c>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>75</v>
       </c>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>76</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>151</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>149</v>
       </c>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -882,7 +882,7 @@
         <v>121546</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>152</v>
       </c>
@@ -899,7 +899,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>153</v>
       </c>
@@ -916,7 +916,7 @@
         <v>12574</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>172</v>
       </c>
@@ -932,9 +932,8 @@
       <c r="E14">
         <v>6498</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>173</v>
       </c>
@@ -950,9 +949,8 @@
       <c r="E15">
         <v>115337</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>174</v>
       </c>
@@ -969,7 +967,7 @@
         <v>25778</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -986,7 +984,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>497</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>71726</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>179</v>
       </c>
@@ -1036,9 +1034,8 @@
       <c r="E20">
         <v>55858</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>269</v>
       </c>
@@ -1054,9 +1051,8 @@
       <c r="E21">
         <v>5826</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>270</v>
       </c>
@@ -1072,9 +1068,8 @@
       <c r="E22">
         <v>5677</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>457</v>
       </c>
@@ -1090,9 +1085,8 @@
       <c r="E23">
         <v>14156</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>458</v>
       </c>
@@ -1108,9 +1102,8 @@
       <c r="E24">
         <v>15158</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>474</v>
       </c>
@@ -1126,9 +1119,8 @@
       <c r="E25">
         <v>7811</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>489</v>
       </c>
@@ -1144,7 +1136,6 @@
       <c r="E26">
         <v>6702</v>
       </c>
-      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Final Data/Ohio/Ohio companies_copy.xlsx
+++ b/Final Data/Ohio/Ohio companies_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4872693-649F-4C03-A205-C42A5AB98709}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535F6C28-9616-4D09-8A0C-6E86B281E8B8}"/>
   <bookViews>
-    <workbookView xWindow="23325" yWindow="3060" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29070" yWindow="2490" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -233,6 +233,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -539,7 +540,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,228 +578,144 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B2">
-        <v>476</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>5449</v>
-      </c>
-      <c r="H2" s="1">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>476</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>11332</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>121546</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B3">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>5883</v>
-      </c>
-      <c r="H3" s="1">
-        <v>72</v>
-      </c>
-      <c r="I3">
-        <v>479</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>57591</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>115337</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>497</v>
       </c>
       <c r="B4">
-        <v>479</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>5422</v>
-      </c>
-      <c r="H4" s="1">
-        <v>149</v>
-      </c>
-      <c r="I4">
-        <v>495</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>71726</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>179</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>55858</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>152</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>195774</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>236</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>11856</v>
-      </c>
-      <c r="H5" s="1">
-        <v>172</v>
-      </c>
-      <c r="I5">
-        <v>411</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E6">
+        <v>40074</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>174</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>159900</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>74</v>
-      </c>
-      <c r="B6">
-        <v>251</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>11361</v>
-      </c>
-      <c r="H6" s="1">
-        <v>269</v>
-      </c>
-      <c r="I6">
-        <v>447</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>11503</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>75</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>23441</v>
-      </c>
-      <c r="H7" s="1">
-        <v>457</v>
-      </c>
-      <c r="I7">
-        <v>196</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>29314</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
+        <v>25778</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>5511</v>
+        <v>23441</v>
       </c>
       <c r="H8" s="1">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="I8">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>7811</v>
+        <v>29314</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -833,314 +750,405 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>149</v>
+        <v>458</v>
       </c>
       <c r="B10">
-        <v>495</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>5200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>489</v>
-      </c>
-      <c r="I10">
-        <v>401</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
-        <v>6702</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
+        <v>15158</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>150</v>
+        <v>457</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>121546</v>
+        <v>14156</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>40074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B13">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>12574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11856</v>
+      </c>
+      <c r="H13" s="2">
+        <v>172</v>
+      </c>
+      <c r="I13">
+        <v>411</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>159900</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="B14">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>6498</v>
+        <v>11361</v>
+      </c>
+      <c r="H14" s="2">
+        <v>269</v>
+      </c>
+      <c r="I14">
+        <v>447</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>11503</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>173</v>
+        <v>474</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>115337</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>25778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>175</v>
+        <v>489</v>
       </c>
       <c r="B17">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B18">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>6889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>71726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5883</v>
+      </c>
+      <c r="H19" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>479</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>57591</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>55858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B21">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>5826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>5677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5511</v>
+      </c>
+      <c r="H22" s="2">
+        <v>474</v>
+      </c>
+      <c r="I22">
+        <v>346</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>7811</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>457</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>14156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5449</v>
+      </c>
+      <c r="H23" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>476</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>11332</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>458</v>
+        <v>72</v>
       </c>
       <c r="B24">
-        <v>184</v>
+        <v>479</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>15158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5422</v>
+      </c>
+      <c r="H24" s="2">
+        <v>149</v>
+      </c>
+      <c r="I24">
+        <v>495</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>195774</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>474</v>
+        <v>175</v>
       </c>
       <c r="B25">
-        <v>346</v>
+        <v>483</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>7811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <v>495</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>5200</v>
+      </c>
+      <c r="H26" s="2">
         <v>489</v>
       </c>
-      <c r="B26">
+      <c r="I26">
         <v>401</v>
       </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="J26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E26">
+      <c r="K26">
         <v>6702</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
-      <sortCondition ref="D1:D26"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
